--- a/pareto/case_studies/visualization_test_data.xlsx
+++ b/pareto/case_studies/visualization_test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{10A09345-AC63-482C-8E8D-6E4DD2D9081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040DF9C1-B2C4-44B3-A23C-EFB979B8A559}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{10A09345-AC63-482C-8E8D-6E4DD2D9081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B27DC4B7-F221-4547-8385-3C866CCD291A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DEC03735-CB40-4E9E-876E-FAD88CFC5AFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DEC03735-CB40-4E9E-876E-FAD88CFC5AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="test_plot_sankey" sheetId="2" r:id="rId1"/>
+    <sheet name="test_plot_bar" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="36">
   <si>
     <t>T01</t>
   </si>
@@ -88,6 +89,60 @@
   </si>
   <si>
     <t>VALUE</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>PP01</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>PP02</t>
+  </si>
+  <si>
+    <t>PP03</t>
+  </si>
+  <si>
+    <t>PP04</t>
+  </si>
+  <si>
+    <t>PP05</t>
   </si>
 </sst>
 </file>
@@ -458,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B33FC-E462-40AA-8C10-A44DA20788DB}">
   <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1382,4 +1437,526 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1FC084-7D27-46DB-B3A9-5B076E845C24}">
+  <dimension ref="A2:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/visualization_test_data.xlsx
+++ b/pareto/case_studies/visualization_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{10A09345-AC63-482C-8E8D-6E4DD2D9081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B27DC4B7-F221-4547-8385-3C866CCD291A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{10A09345-AC63-482C-8E8D-6E4DD2D9081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5AC790-546C-43EE-97D1-F17B551D7F5B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DEC03735-CB40-4E9E-876E-FAD88CFC5AFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DEC03735-CB40-4E9E-876E-FAD88CFC5AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="test_plot_sankey" sheetId="2" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Belmont</t>
   </si>
   <si>
-    <t>Washington, Pa</t>
-  </si>
-  <si>
     <t>Company A</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>PP05</t>
+  </si>
+  <si>
+    <t>Washington, PA</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B33FC-E462-40AA-8C10-A44DA20788DB}">
   <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,16 +524,16 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
         <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1238,10 +1238,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1443,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1FC084-7D27-46DB-B3A9-5B076E845C24}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1454,24 +1454,24 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -1762,13 +1762,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1776,13 +1776,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1818,13 +1818,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>100</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
         <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -1902,13 +1902,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1916,13 +1916,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -1930,13 +1930,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>100</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>100</v>
